--- a/知识点统计表.xlsx
+++ b/知识点统计表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/West/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="460" windowWidth="28160" windowHeight="16820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4125" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="500" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="第一周周考" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="工作表6" sheetId="6" r:id="rId6"/>
     <sheet name="工作表7" sheetId="7" r:id="rId7"/>
     <sheet name="工作表8" sheetId="8" r:id="rId8"/>
-    <sheet name="工作表9" sheetId="9" r:id="rId9"/>
+    <sheet name="第一次月考" sheetId="9" r:id="rId9"/>
     <sheet name="工作表10" sheetId="10" r:id="rId10"/>
     <sheet name="工作表11" sheetId="11" r:id="rId11"/>
     <sheet name="工作表12" sheetId="12" r:id="rId12"/>
@@ -29,7 +24,7 @@
     <sheet name="工作表15" sheetId="15" r:id="rId15"/>
     <sheet name="工作表16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="142">
   <si>
     <t>小题号</t>
   </si>
@@ -54,13 +49,513 @@
   </si>
   <si>
     <t>知识点名称</t>
+  </si>
+  <si>
+    <t>基本读音</t>
+  </si>
+  <si>
+    <t>1035_0</t>
+  </si>
+  <si>
+    <t>人称代词</t>
+  </si>
+  <si>
+    <t>1783_0</t>
+  </si>
+  <si>
+    <t>1789_0</t>
+  </si>
+  <si>
+    <t>宾格人称代词在句中作动词宾语或介词宾语</t>
+  </si>
+  <si>
+    <t>各个字母的读音</t>
+  </si>
+  <si>
+    <t>1037_0</t>
+  </si>
+  <si>
+    <t>1038_0</t>
+  </si>
+  <si>
+    <t>(2483_0)</t>
+  </si>
+  <si>
+    <t>(2486_0)</t>
+  </si>
+  <si>
+    <t>(2337_0)</t>
+  </si>
+  <si>
+    <t>(2339_0)</t>
+  </si>
+  <si>
+    <t>(2777_0)</t>
+  </si>
+  <si>
+    <t>(2893_0)</t>
+  </si>
+  <si>
+    <t>(3749_0)</t>
+  </si>
+  <si>
+    <t>(3765_0)</t>
+  </si>
+  <si>
+    <t>(3035_0)</t>
+  </si>
+  <si>
+    <t>(3173_0)</t>
+  </si>
+  <si>
+    <t>(3179_0)</t>
+  </si>
+  <si>
+    <t>(3776_0)</t>
+  </si>
+  <si>
+    <t>(3777_0)</t>
+  </si>
+  <si>
+    <t>(3241_0)</t>
+  </si>
+  <si>
+    <t>(3309_0)</t>
+  </si>
+  <si>
+    <t>(3315_0)</t>
+  </si>
+  <si>
+    <t>(2953_0)</t>
+  </si>
+  <si>
+    <t>(7013_0)</t>
+  </si>
+  <si>
+    <t>(7011_0)</t>
+  </si>
+  <si>
+    <t>(7012_0)</t>
+  </si>
+  <si>
+    <t>(1763_0)</t>
+  </si>
+  <si>
+    <t>(1967_0)</t>
+  </si>
+  <si>
+    <t>(1969_0)</t>
+  </si>
+  <si>
+    <t>(2761_0)</t>
+  </si>
+  <si>
+    <t>(2771_0)</t>
+  </si>
+  <si>
+    <t>(3591_0)</t>
+  </si>
+  <si>
+    <t>(3629_0)</t>
+  </si>
+  <si>
+    <t>(3526_0)</t>
+  </si>
+  <si>
+    <t>(3573_0)</t>
+  </si>
+  <si>
+    <t>(3675_0)</t>
+  </si>
+  <si>
+    <t>(6861_0)</t>
+  </si>
+  <si>
+    <t>(6959_0)</t>
+  </si>
+  <si>
+    <t>(6951_0)</t>
+  </si>
+  <si>
+    <t>(6759_0)</t>
+  </si>
+  <si>
+    <t>(6847_0)</t>
+  </si>
+  <si>
+    <t>(6846_0)</t>
+  </si>
+  <si>
+    <t>(6986_0)</t>
+  </si>
+  <si>
+    <t>Ⅹ</t>
+  </si>
+  <si>
+    <t>(6997_0)</t>
+  </si>
+  <si>
+    <t>Ⅴ1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母及字母组合在单词中的读音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不定冠词的用法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2029_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不定冠词a与an的不同用法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2623_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>介词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2655_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示“方式、手段”的介词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1689_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可数名词的数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1691_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可数名词复数的规则变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1707_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可数名词复数的不规则变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1939_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1953_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数词作定语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ8、Ⅶ4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副词作状语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容词比较级的用法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容词比较级：表示（甲比乙更……），用“比较级+than”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>情态动词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oughtto的用法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状语从句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assoonas引导的时间状语从句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词过去式的不规则变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ13、Ⅷ1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在完成时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在完成时的否定式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件状语从句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if引导的条件状语从句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动语态的构成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3245_0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动语态的一般过去时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ16、Ⅶ3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词不定式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词不定式作宾语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役动词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ18、Ⅶ2、Ⅶ7、Ⅷ4、Ⅷ5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定词组短语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅴ19-20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交际口语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅶ 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇考查</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅶ5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名词作主语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅶ6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序数词的构成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序数词1至19的表示法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅶ8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连系动词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示保持某种状态的系动词(keep/remain等)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅷ2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反意疑问句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>含有否定词的反意疑问句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅷ3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊疑问句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对将来时间状语提问用Howsoon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅷ7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3677_0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主语从句</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅸ A、C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读理解题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>科普类阅读理解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人生感悟类阅读理解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅵ、ⅨB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完形填空题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短文填词型完形填空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选词填空型完形填空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>书面表达</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>议论文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +579,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +697,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -244,7 +769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +804,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,30 +981,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -496,1103 +1021,1103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" s="5" customFormat="1" ht="21.95" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" ht="21.95" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" ht="21.95" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" ht="21.95" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" ht="21.95" customHeight="1">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" ht="21.95" customHeight="1">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="21.95" customHeight="1">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" ht="21.95" customHeight="1">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" ht="21.95" customHeight="1">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" ht="21.95" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="21.95" customHeight="1">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" ht="21.95" customHeight="1">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" ht="21.95" customHeight="1">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" ht="21.95" customHeight="1">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="21.95" customHeight="1">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="21.95" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="21.95" customHeight="1">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" ht="21.95" customHeight="1">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" ht="21.95" customHeight="1">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="21.95" customHeight="1">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" ht="21.95" customHeight="1">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" ht="21.95" customHeight="1">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" ht="21.95" customHeight="1">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="21.95" customHeight="1">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="21.95" customHeight="1">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="21.95" customHeight="1">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" ht="21.95" customHeight="1">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="21.95" customHeight="1">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" ht="21.95" customHeight="1">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" ht="21.95" customHeight="1">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" ht="21.95" customHeight="1">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="21.95" customHeight="1">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="21.95" customHeight="1">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="21.95" customHeight="1">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="21.95" customHeight="1">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" ht="21.95" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" ht="21.95" customHeight="1">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" ht="21.95" customHeight="1">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="151" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="152" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="153" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="154" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="155" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="156" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="157" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="158" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="159" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="160" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="161" ht="21.95" customHeight="1"/>
+    <row r="162" ht="21.95" customHeight="1"/>
+    <row r="163" ht="21.95" customHeight="1"/>
+    <row r="164" ht="21.95" customHeight="1"/>
+    <row r="165" ht="21.95" customHeight="1"/>
+    <row r="166" ht="21.95" customHeight="1"/>
+    <row r="167" ht="21.95" customHeight="1"/>
+    <row r="168" ht="21.95" customHeight="1"/>
+    <row r="169" ht="21.95" customHeight="1"/>
+    <row r="170" ht="21.95" customHeight="1"/>
+    <row r="171" ht="21.95" customHeight="1"/>
+    <row r="172" ht="21.95" customHeight="1"/>
+    <row r="173" ht="21.95" customHeight="1"/>
+    <row r="174" ht="21.95" customHeight="1"/>
+    <row r="175" ht="21.95" customHeight="1"/>
+    <row r="176" ht="21.95" customHeight="1"/>
+    <row r="177" ht="21.95" customHeight="1"/>
+    <row r="178" ht="21.95" customHeight="1"/>
+    <row r="179" ht="21.95" customHeight="1"/>
+    <row r="180" ht="21.95" customHeight="1"/>
+    <row r="181" ht="21.95" customHeight="1"/>
+    <row r="182" ht="21.95" customHeight="1"/>
+    <row r="183" ht="21.95" customHeight="1"/>
+    <row r="184" ht="21.95" customHeight="1"/>
+    <row r="185" ht="21.95" customHeight="1"/>
+    <row r="186" ht="21.95" customHeight="1"/>
+    <row r="187" ht="21.95" customHeight="1"/>
+    <row r="188" ht="21.95" customHeight="1"/>
+    <row r="189" ht="21.95" customHeight="1"/>
+    <row r="190" ht="21.95" customHeight="1"/>
+    <row r="191" ht="21.95" customHeight="1"/>
+    <row r="192" ht="21.95" customHeight="1"/>
+    <row r="193" ht="21.95" customHeight="1"/>
+    <row r="194" ht="21.95" customHeight="1"/>
+    <row r="195" ht="21.95" customHeight="1"/>
+    <row r="196" ht="21.95" customHeight="1"/>
+    <row r="197" ht="21.95" customHeight="1"/>
+    <row r="198" ht="21.95" customHeight="1"/>
+    <row r="199" ht="21.95" customHeight="1"/>
+    <row r="200" ht="21.95" customHeight="1"/>
+    <row r="201" ht="21.95" customHeight="1"/>
+    <row r="202" ht="21.95" customHeight="1"/>
+    <row r="203" ht="21.95" customHeight="1"/>
+    <row r="204" ht="21.95" customHeight="1"/>
+    <row r="205" ht="21.95" customHeight="1"/>
+    <row r="206" ht="21.95" customHeight="1"/>
+    <row r="207" ht="21.95" customHeight="1"/>
+    <row r="208" ht="21.95" customHeight="1"/>
+    <row r="209" ht="21.95" customHeight="1"/>
+    <row r="210" ht="21.95" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,25 +2125,567 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="6" width="11" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36.950000000000003" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="12"/>
+      <c r="D30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="D32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1626,12 +2693,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1639,12 +2706,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1652,12 +2719,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1665,12 +2732,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1678,12 +2745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1691,23 +2758,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1724,665 +2791,665 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2396,12 +3463,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2409,12 +3476,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2422,12 +3489,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2435,12 +3502,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2448,12 +3515,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2461,12 +3528,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2474,12 +3541,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
